--- a/Incubations/Samples_incubations_description_and_planning.xlsx
+++ b/Incubations/Samples_incubations_description_and_planning.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="920" windowWidth="38180" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="213">
   <si>
     <t>A</t>
   </si>
@@ -212,39 +212,9 @@
     <t>Incub2_23B_180223</t>
   </si>
   <si>
-    <t>Incub2_5A_180228</t>
-  </si>
-  <si>
-    <t>Incub2_5B_180228</t>
-  </si>
-  <si>
-    <t>Incub2_10A_180228</t>
-  </si>
-  <si>
-    <t>Incub2_10B_180228</t>
-  </si>
-  <si>
-    <t>Incub2_15A_180228</t>
-  </si>
-  <si>
-    <t>Incub2_15B_180228</t>
-  </si>
-  <si>
-    <t>Incub2_20A_180228</t>
-  </si>
-  <si>
-    <t>Incub2_20B_180228</t>
-  </si>
-  <si>
-    <t>Incub2_22A_180228</t>
-  </si>
-  <si>
     <t>Remaining to sample</t>
   </si>
   <si>
-    <t>Incubation 2 (Started on 180228) Time 1</t>
-  </si>
-  <si>
     <t>Incubation 2 (Started on 180307) Time 2</t>
   </si>
   <si>
@@ -296,9 +266,6 @@
     <t>Incubation 2 (Started on 180314) Time 3</t>
   </si>
   <si>
-    <t>Incubation 2 (Started on 180321) Time 3</t>
-  </si>
-  <si>
     <t>Incub2_5A_180314</t>
   </si>
   <si>
@@ -392,9 +359,6 @@
     <t>AMMONIA KITS</t>
   </si>
   <si>
-    <t>SAMPLES TO TAKE (filter through 44um and store in 2mL screw top vial and store in 4C at EHALL)</t>
-  </si>
-  <si>
     <t>The year format is YYMMDD</t>
   </si>
   <si>
@@ -437,9 +401,6 @@
     <t>The usual workweek</t>
   </si>
   <si>
-    <t xml:space="preserve">The GC-MS is done on the gas heaspace of the 20m, 22m and 23m vials directly injected into the machine. </t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
@@ -656,13 +617,55 @@
     <t>No 29N signal</t>
   </si>
   <si>
-    <t>Incub2_22B_180228</t>
-  </si>
-  <si>
-    <t>Incub2_23_A_180228</t>
-  </si>
-  <si>
-    <t>Incub2_23B_180228</t>
+    <t>Incubation 2 (Started on 180301) Time 1</t>
+  </si>
+  <si>
+    <t>Incub2_5A_180301</t>
+  </si>
+  <si>
+    <t>Incub2_5B_180301</t>
+  </si>
+  <si>
+    <t>Incub2_10A_180301</t>
+  </si>
+  <si>
+    <t>Incub2_10B_180301</t>
+  </si>
+  <si>
+    <t>Incub2_15A_180301</t>
+  </si>
+  <si>
+    <t>Incub2_15B_180301</t>
+  </si>
+  <si>
+    <t>Incub2_20A_180301</t>
+  </si>
+  <si>
+    <t>Incub2_20B_180301</t>
+  </si>
+  <si>
+    <t>Incub2_22A_180301</t>
+  </si>
+  <si>
+    <t>Incub2_22B_180301</t>
+  </si>
+  <si>
+    <t>Incub2_23_A_180301</t>
+  </si>
+  <si>
+    <t>Incub2_23B_180301</t>
+  </si>
+  <si>
+    <t>SAMPLES TO TAKE (filter through 0.44um and store in 2mL screw top vial and store in 4C at EHALL)</t>
+  </si>
+  <si>
+    <t>The GC-MS is done on the gas heaspace of the 20m, 22m and 23m vials directly injected into the machine.  Incubation 2 only</t>
+  </si>
+  <si>
+    <t>Incubation 2 (Started on 180321) Time 9</t>
+  </si>
+  <si>
+    <t>No 29N signal yet</t>
   </si>
 </sst>
 </file>
@@ -748,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -764,6 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,17 +1070,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1084,99 +1088,99 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1187,18 +1191,18 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
@@ -1325,46 +1329,46 @@
         <v>21</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="Z29" s="4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
@@ -1411,46 +1415,46 @@
         <v>34</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="Z30" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -1497,46 +1501,46 @@
         <v>47</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
@@ -1583,176 +1587,176 @@
         <v>60</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L33" s="4" t="s">
+      <c r="C33" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="5" t="s">
         <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="W33" s="4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="M34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="N34" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>5</v>
@@ -1772,46 +1776,46 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N35" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>6</v>
@@ -1831,46 +1835,46 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N36" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>7</v>
@@ -1890,12 +1894,12 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="P38" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
@@ -2022,46 +2026,46 @@
         <v>21</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
@@ -2108,46 +2112,46 @@
         <v>34</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="W42" s="4" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="X42" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Y42" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="Z42" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="AB42" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="AC42" s="4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
@@ -2194,46 +2198,46 @@
         <v>47</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="V43" s="4" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="W43" s="4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="X43" s="4" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="Y43" s="4" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="Z43" s="4" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="AB43" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="AC43" s="4" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
@@ -2280,176 +2284,176 @@
         <v>60</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="V44" s="4" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="W44" s="4" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="X44" s="4" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="Y44" s="4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="Z44" s="4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AB44" s="4" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AC44" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>71</v>
+      <c r="A45" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="N45" s="4" t="s">
+      <c r="C45" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="V45" s="4" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="W45" s="4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="X45" s="4" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="Y45" s="4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="Z45" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AB45" s="4" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="AC45" s="4" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L46" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="M46" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="N46" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>5</v>
@@ -2469,46 +2473,46 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N47" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>6</v>
@@ -2528,46 +2532,46 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N48" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>7</v>
@@ -2594,10 +2598,10 @@
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
@@ -2687,83 +2691,83 @@
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="2" t="s">
+      <c r="N53" s="14" t="s">
         <v>21</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="T53" s="4" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="U53" s="4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="V53" s="4" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="W53" s="4" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="Y53" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="AB53" s="4" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="AC53" s="4" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -2773,7 +2777,7 @@
       <c r="B54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D54" s="5" t="s">
@@ -2810,46 +2814,46 @@
         <v>34</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="S54" s="4" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="X54" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="Y54" s="4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="AA54" s="4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="AB54" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="AC54" s="4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -2896,46 +2900,46 @@
         <v>47</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="T55" s="4" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="V55" s="4" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="W55" s="4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="X55" s="4" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="Y55" s="4" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="AA55" s="4" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="AB55" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="AC55" s="4" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
@@ -2982,176 +2986,176 @@
         <v>60</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="S56" s="4" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="W56" s="4" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="X56" s="4" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="Y56" s="4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="Z56" s="4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AB56" s="4" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AC56" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>71</v>
+      <c r="A57" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>60</v>
+      <c r="C57" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="Q57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="V57" s="4" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="W57" s="4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="X57" s="4" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="Y57" s="4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="Z57" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="AA57" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AB57" s="4" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="AC57" s="4" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L58" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="4" t="s">
+      <c r="M58" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="N58" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="Q58" s="1" t="s">
         <v>5</v>
@@ -3171,46 +3175,46 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N59" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>6</v>
@@ -3230,46 +3234,46 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N60" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="Q60" s="1" t="s">
         <v>7</v>
@@ -3289,7 +3293,7 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="AA62">
         <f>96*2</f>
@@ -3301,59 +3305,62 @@
         <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B64">
         <v>180227</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>180306</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>180313</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>180320</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>180327</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>180403</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>180310</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>180317</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>180324</v>
       </c>
